--- a/biology/Zoologie/Callicebus_coimbrai/Callicebus_coimbrai.xlsx
+++ b/biology/Zoologie/Callicebus_coimbrai/Callicebus_coimbrai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Titi de Coimbra
-Le Titi de Coimbra[1] (Callicebus coimbrai) est un singe du Nouveau Monde de la famille des Pitheciidae. Ce primate est endémique de la côte atlantique du Brésil.
+Le Titi de Coimbra (Callicebus coimbrai) est un singe du Nouveau Monde de la famille des Pitheciidae. Ce primate est endémique de la côte atlantique du Brésil.
 Le nom de ce callicèbe découvert en 1994 et décrit en 1999 fait honneur au primatologue Adelmar Coimbra-Filho (en), fondateur et ex-directeur du Centre de Primatologie de Rio au Brésil.
 </t>
         </is>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
